--- a/Excel/NoticeConfig.xlsx
+++ b/Excel/NoticeConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#测试说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,10 +41,6 @@
   </si>
   <si>
     <t>_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -439,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I9"/>
+  <dimension ref="C3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -450,116 +442,86 @@
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="3:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="3:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="3">
         <v>101</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>102</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>103</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>104</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
